--- a/medicine/Enfance/Dorothée_Piatek/Dorothée_Piatek.xlsx
+++ b/medicine/Enfance/Dorothée_Piatek/Dorothée_Piatek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Piatek</t>
+          <t>Dorothée_Piatek</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothée Piatek est une auteure française de littérature née à Haubourdin dans le Nord de la France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Piatek</t>
+          <t>Dorothée_Piatek</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothée Piatek se dirige vers des études de graphisme et de photographie à l'institut saint Luc de Tournai en Belgique avant de s'installer en Normandie où elle commence à écrire.
 Son premier roman, L'Horizon bleu, paru en 2002 aux éditions Petit à Petit et plusieurs fois primé, raconte le destin d'un jeune instituteur incorporé dans l'armée durant la Première Guerre Mondiale. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Piatek</t>
+          <t>Dorothée_Piatek</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Horizon bleu, illustrations de Yann Hamonic. Éditions Petit à Petit, novembre 2002 - Petit Poche, septembre 2006 (réédition Seuil 2012)
 Trilogie du Cercle d'Or (Prix du roman médiéval 2004. Édition en coffret en 2006)
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Piatek</t>
+          <t>Dorothée_Piatek</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Demoiselle de Wellington : sélectionné au prix de la Revue des professeurs de Lettres 2017-2018
 Le Silence des oiseaux : Prix "Tapage" 2016 / sélectionné au prix "Livre Elu en Livradois-Forez " 2016 / sélectionné au "prix Garin" 2015 / sélectionné au "prix Cordage" 2015
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Doroth%C3%A9e_Piatek</t>
+          <t>Dorothée_Piatek</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +660,9 @@
           <t>Adaptations théâtrales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'Horizon bleu par la compagnie La boite à sel
 L'Allumeur de rêve par la compagnie La Famille Vicenti</t>
